--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113958.56148048</v>
+        <v>1111522.924556774</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>24.93375787515394</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>36.63188116405793</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>50.04052206184533</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>38.18739105194257</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.86209348694737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>279.9182547947695</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>6.496370728249126</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347177</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>206.9961384605465</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>215.3444129715188</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035266</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>174.395538400176</v>
       </c>
       <c r="C13" t="n">
-        <v>11.36997141775657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001832</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>124.6324187378967</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>154.2412016770578</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>30.97191586387658</v>
       </c>
       <c r="F19" t="n">
-        <v>18.70843787977245</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>79.14040151643974</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6197054599885087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>176.5196562849259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>278.7019488598315</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083709</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>135.4684761590174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>110.0177171766869</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I37" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.61213096654769</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.0175085755505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158747</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,22 +4328,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>717.3698800184446</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>548.4336970905377</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>398.317057678202</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>250.4039640958089</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>103.5140165978985</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218343</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1846.485213562414</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1846.485213562414</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.425065783662</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.007895746702</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>899.0183448486844</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.0183448486844</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1712.34156756514</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>985.1133520179776</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>574.1274472283701</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>159.0549970733666</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3287.032699334482</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3287.032699334482</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3033.502222608318</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.439335264748</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.670679994633</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368017</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368017</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368017</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1134.908724368017</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1439.837779452054</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1081.572080845304</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>695.7838282470595</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>688.8383274978561</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>3002.775414885893</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V8" t="n">
-        <v>2671.712527542323</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W8" t="n">
-        <v>2318.943872272208</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X8" t="n">
-        <v>1945.478114011128</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1555.338782035317</v>
+        <v>1808.800296392466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4951,28 +4951,28 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1895.007092372511</v>
+        <v>1838.026121952498</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.044575432099</v>
+        <v>1469.063605012087</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.778876825349</v>
+        <v>1110.797906405336</v>
       </c>
       <c r="E11" t="n">
-        <v>781.9906242271047</v>
+        <v>725.009653807092</v>
       </c>
       <c r="F11" t="n">
-        <v>371.0047194374972</v>
+        <v>515.9226452610856</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469185</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455661</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455661</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.09741608827</v>
+        <v>3672.062594867196</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744699</v>
+        <v>3340.999707523626</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474585</v>
+        <v>2988.231052253512</v>
       </c>
       <c r="X11" t="n">
-        <v>2671.746264412444</v>
+        <v>2614.765293992432</v>
       </c>
       <c r="Y11" t="n">
-        <v>2281.606932436633</v>
+        <v>2224.62596201662</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469185</v>
+        <v>196.8120623792127</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469185</v>
+        <v>477.16213223765</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520014</v>
+        <v>900.4499396649594</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895891</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246958</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112707</v>
+        <v>2428.043574125664</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.660810952862</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.6552727879898</v>
+        <v>925.7669901098875</v>
       </c>
       <c r="C13" t="n">
-        <v>608.1704531740945</v>
+        <v>925.7669901098875</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740945</v>
+        <v>775.6503506975517</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917014</v>
+        <v>627.7372571151586</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>480.8473096172482</v>
       </c>
       <c r="G13" t="n">
         <v>313.367412093791</v>
@@ -5194,55 +5194,55 @@
         <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457701</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.5002252888913</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="T13" t="n">
-        <v>1855.288681564319</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="U13" t="n">
-        <v>1566.197975004607</v>
+        <v>1866.818336991392</v>
       </c>
       <c r="V13" t="n">
-        <v>1311.51348679872</v>
+        <v>1612.133848785505</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.09631676176</v>
+        <v>1322.716678748545</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.09631676176</v>
+        <v>1322.716678748545</v>
       </c>
       <c r="Y13" t="n">
-        <v>801.3037376182295</v>
+        <v>1101.924099605015</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925061</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446337</v>
+        <v>1511.096147944828</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
         <v>2133.192111344164</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>999.7730135305294</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>830.8368306026225</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>680.7201911902866</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>532.8070976078936</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>385.9171501099834</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>218.7029552845622</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q16" t="n">
         <v>2428.375774410168</v>
@@ -5464,22 +5464,22 @@
         <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.576580796978</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.500367111705</v>
+        <v>1919.620778439277</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.815878905818</v>
+        <v>1919.620778439277</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905818</v>
+        <v>1630.203608402317</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1402.214057504299</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>1181.421478360769</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121641</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998285</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998285</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5777,13 +5777,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135298</v>
+        <v>948.5505208511904</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856229</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2184.16844972361</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1895.093223067808</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1640.408734861921</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.1315533873</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,7 +6230,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.98966419767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408901</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408901</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408901</v>
+        <v>414.4022433768876</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408902</v>
+        <v>414.4022433768876</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>414.4022433768875</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6616,25 +6616,25 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1551.549009249638</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.131839212677</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1034.14228831466</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>813.3497091711298</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400724</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400724</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400724</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400724</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.28419561186</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138422</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703121</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6929,52 +6929,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D37" t="n">
-        <v>733.776543148324</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E37" t="n">
-        <v>585.863449565931</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680207</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027829009</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H37" t="n">
-        <v>130.0655716250992</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318806</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7166,43 +7166,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413022</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2407.960931088798</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>870.3164745246295</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>701.3802915967226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>551.2636521843868</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>403.3505586019937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>256.4606111040835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836017</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556948</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,19 +7816,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138414</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.056348551435551e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>199.8799072811649</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114107</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>154.3866877069502</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>5.43644178176126</v>
       </c>
       <c r="C13" t="n">
-        <v>155.8768496808713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146344</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729095</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>15.82157105405717</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>63.24079278570404</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4620467826926</v>
       </c>
       <c r="F19" t="n">
-        <v>126.7126101431588</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.2650488108485</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>285.9032928766025</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>119.8635921600921</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>7.482525529412612</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.70496293143177</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>35.40333084624435</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.845153664065492</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I37" t="n">
-        <v>45.3794168272093</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.76311574357397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>4.506629716718322</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.52575990662488</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878849.7082487451</v>
+        <v>878849.7082487448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955957.5549399453</v>
+        <v>955957.5549399455</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961206.0779010158</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961206.0779010162</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961206.0779010162</v>
+        <v>961206.0779010158</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876633</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
@@ -26332,10 +26332,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26350,10 +26350,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185156</v>
+        <v>143114.1392185151</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051387</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115338</v>
+        <v>37377.32855115301</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848906</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="E4" t="n">
         <v>13507.6871545367</v>
@@ -26430,16 +26430,16 @@
         <v>13600.27549061739</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26448,16 +26448,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1057373.511500217</v>
       </c>
       <c r="C6" t="n">
-        <v>271371.2342273756</v>
+        <v>271371.2342273758</v>
       </c>
       <c r="D6" t="n">
-        <v>271371.2342273757</v>
+        <v>271371.2342273761</v>
       </c>
       <c r="E6" t="n">
-        <v>181091.6930524639</v>
+        <v>180881.7288086196</v>
       </c>
       <c r="F6" t="n">
-        <v>181277.1175822741</v>
+        <v>181231.2125867076</v>
       </c>
       <c r="G6" t="n">
-        <v>338212.7206504247</v>
+        <v>338177.9827249892</v>
       </c>
       <c r="H6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="I6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605684</v>
       </c>
       <c r="J6" t="n">
-        <v>131848.7544887263</v>
+        <v>131814.0165632907</v>
       </c>
       <c r="K6" t="n">
-        <v>349379.9568860037</v>
+        <v>349345.2189605682</v>
       </c>
       <c r="L6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="M6" t="n">
-        <v>312002.6283348505</v>
+        <v>311967.8904094152</v>
       </c>
       <c r="N6" t="n">
-        <v>305597.5503275148</v>
+        <v>305562.8124020788</v>
       </c>
       <c r="O6" t="n">
-        <v>346356.6589087792</v>
+        <v>346321.9209833435</v>
       </c>
       <c r="P6" t="n">
-        <v>349379.9568860038</v>
+        <v>349345.2189605681</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808648</v>
+        <v>981.3883278086472</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012571</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218304</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288148</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063554</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063551</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173585</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>356.9966121971078</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>129.3939270949703</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>8.930911489229075</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5672423254751</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>71.00037073623324</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.9698866949899</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>131.003470858684</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>244.4988012306528</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911034</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485647</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508989</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726053</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216968</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857421</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898383</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294404</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615134</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895584</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596473</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202552</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256412</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845326</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>678.1177801147137</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431806</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>266.14218018962</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697584</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570605</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826899</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,31 +32069,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>420.7661933823243</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>596.068849638979</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276248</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584694</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932474</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077536</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062438</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151089</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156587</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458962</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.563441845767</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>546.7760680313804</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987362</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>132.1677727752898</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406266052</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.1825931670183</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765378</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998349</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2118136024501</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>453.9348157169607</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
